--- a/Chandrashekaran-annotations/GLF_Q1_2018.xlsx
+++ b/Chandrashekaran-annotations/GLF_Q1_2018.xlsx
@@ -1,37 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vm056257\Downloads\Working\PEBU\ML\SubjECTive-QA\Chandrashekaran-annotations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F07768-144E-4FCF-900F-2247591D4280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+  <si>
+    <t>Asker</t>
+  </si>
+  <si>
+    <t>Responder</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Assertive</t>
+  </si>
+  <si>
+    <t>Cautious</t>
+  </si>
+  <si>
+    <t>Optimistic</t>
+  </si>
+  <si>
+    <t>Specific</t>
+  </si>
+  <si>
+    <t>Relevant</t>
+  </si>
+  <si>
+    <t>Turner Holm</t>
+  </si>
+  <si>
+    <t>Quintin V. Kneen</t>
+  </si>
+  <si>
+    <t>Yes, I just wanted to dig in a little bit to how you guys see 2018 developing based on the information you have now. You guided for a 20% or more increase in North Sea day rates for the second quarter, very encouraging there. Would you think that based on the rates that you're booking now that third quarter would be about the same? Or it's a possibility to see a little bit more momentum into the third quarter seasonally and I guess the strongest? What's sort of the moving pieces on that?</t>
+  </si>
+  <si>
+    <t>I do think there's a little bit of upside in Q3 as well, but my expectation is that they will lock a lot of books currently on the spot market in the remainder of the second quarter and that will run through the third quarter and hopefully into October as well. So I would say, the third quarter may be 3 or 4 percentage points. I'm optimistic for more, but that's what I'm thinking about as I think about third quarter this year so far.</t>
+  </si>
+  <si>
+    <t>And as a correlator to that, I guess. If you have sort of the seasonally strongest quarters in second, third -- second quarter and third quarter, but you're guiding for moving cash flow positive in fourth quarter. What's sort of the missing piece there? Is it just that you expect cost to be materially lower in fourth quarter, relative to as you move through the year and the cost sort of rolled over? Is that what it is?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, I'm saying that there is actually a high amount -- a relatively high amount of drydocks that were scheduled for Q3, relative to Q4. So Q3 will be the top quarter for us from an operational-performance standpoint. But it won't be the top performance from a cash-flow standpoint because we've got a few drydocks scheduled in Q3. However, as I see in Q4, we don't have as many drydocks and running some of the benefit of what we see in Q3 into Q4.
+And so I expect to be cash flow positive in Q4 for that reason.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I see. OK, all right. One more if I may. Just on Southeast Asia, just looking at your commentary, your prepared remarks, Quintin, and you described Southeast Asia as maybe being a little bit behind the other two key markets in terms of recovery.
+And you also mentioned that the prices that you're seeing on some of your assets starting to get your attention. Given the smallest region for you all with only 10 vessels, what is maybe makes sense now? Are you starting to consider maybe monetizing that business and deploying it in another region? Or what can you if anything on sort of the future structural development of GulfMark?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I definitely think that consolidation and concentration make a lot of sense in this industry at this time. Southeast Asia, in particular, is going to struggle over the next couple of years and there may be a strategic opportunity to redeploy capital invested in that area of the world into an area like the North Sea or maybe even in Latin America, where it could do more for us in the next three to five years. Those opportunities haven't presented themselves just as yet but certainly, things that we think about as we think about what GulfMark could look like in the next three to five years.</t>
+  </si>
+  <si>
+    <t>Joseph Gibney</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes. Thanks. Good morning, guys. Just a question on the Americas.
+Just curious on fleet mix here, exclusively Gulf of Mexico, are you seeing some movement in Trinidad? And just curious how we stand utilizationwise looking into 2Q? Now you referenced some seasonal boost on rate of 5% or so, just Quin, just some perspective there on what you're seeing utilization wise in the Americas? And maybe is it exclusively Gulf of Mexico? Or are you seeing pockets of opportunities for some tightening out of places like Trinidad, just curious on some perspective there?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All right. So what I'm seeing is, areas like Trinidad, Suriname, Guyana, and even Brazil, beginning to tighten up and to draw capacity out of the Gulf of Mexico, and I would even suggest that Mexico proper is going to be a component of that. Recently been taking some large tonnage into those areas, so from the U.S. Gulf of Mexico call it, boats larger than 260 foot.
+But there are also smaller vessels that are getting into that level -- getting into those areas as well. So I expect to see some tightening in the Gulf of Mexico -- U.S. Gulf of Mexico because of that. So the market supply is beginning to dwindle a bit in the U.S.
+Gulf of Mexico, that's given us the opportunity to push price from time to time. As it relates to utilization in the U.S. Gulf of Mexico, I'm starting to see maybe 2 and 3 percentage point increases as we go through the summer in the U.S. Gulf of Mexico.
+So those are those small increases that I anticipate in the recovering market. So there may be some more episodes to push price on a regular basis in the U.S. Gulf of Mexico and we'll certainly push that. But currently, it's definitely on that kind of 280-and-above class of vessel in the U.S.
+Gulf of Mexico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK, that's helpful. And just back to the vessel sales and acquisition market. You referenced just holding off, obviously, because of some rising prices now, it's encouraging. Again getting some of your attention on the smaller tonnage side.
+But as we think about vessel dispositions out of your fleet and some of the regularly scheduled thoughts that we had there flowing through the next six quarters or so. Would we still anticipate movement from some vessel sales this year? Or do you think things are really just sort of pushing out a little bit on that front, given the market tightening up a little bit here that you're willing to wait more? Just trying to understand some timing around sales of some of your less-capable assets within your fleet as we work through the rest of '18.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So we're getting multiple bids on older assets today. And so I [Inaudible] been willing to let go of them just because the prices have increased. I'll give you a general example. In early 2017, some of the smaller PSVs that we had that are still DP2 and still diesel-electric but the smaller -- smallest category, we were getting indications, $1.1 million a copy.
+Recently getting indications of about $4 million a copy on those boats. So I'm starting to get interested in that level, honestly, but we're still taking a wait-and-see approach as we go through the summer. I definitely don't feel like the prices on that category of vessels are backsliding. So as a result, I'm willing to be a little bit patient to see how prices develop as we go through the remainder of 2018.
+But longer term, I don't see them as core to the GulfMark fleet and expect them to find a home elsewhere in the world. They could find a home in Mexico, they could also find a home in West Africa, that category, that specific category of vessels so --</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +136,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,221 +463,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="88.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Asker</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Responder</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Answer</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Clear</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Assertive</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Cautious</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Optimistic</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Specific</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Relevant</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Turner Holm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Quintin V. Kneen</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Yes, I just wanted to dig in a little bit to how you guys see 2018 developing based on the information you have now. You guided for a 20% or more increase in North Sea day rates for the second quarter, very encouraging there. Would you think that based on the rates that you're booking now that third quarter would be about the same? Or it's a possibility to see a little bit more momentum into the third quarter seasonally and I guess the strongest? What's sort of the moving pieces on that?</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>I do think there's a little bit of upside in Q3 as well, but my expectation is that they will lock a lot of books currently on the spot market in the remainder of the second quarter and that will run through the third quarter and hopefully into October as well. So I would say, the third quarter may be 3 or 4 percentage points. I'm optimistic for more, but that's what I'm thinking about as I think about third quarter this year so far.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Turner Holm</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Quintin V. Kneen</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>And as a correlator to that, I guess. If you have sort of the seasonally strongest quarters in second, third -- second quarter and third quarter, but you're guiding for moving cash flow positive in fourth quarter. What's sort of the missing piece there? Is it just that you expect cost to be materially lower in fourth quarter, relative to as you move through the year and the cost sort of rolled over? Is that what it is?</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Well, I'm saying that there is actually a high amount -- a relatively high amount of drydocks that were scheduled for Q3, relative to Q4. So Q3 will be the top quarter for us from an operational-performance standpoint. But it won't be the top performance from a cash-flow standpoint because we've got a few drydocks scheduled in Q3. However, as I see in Q4, we don't have as many drydocks and running some of the benefit of what we see in Q3 into Q4.
-And so I expect to be cash flow positive in Q4 for that reason.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+    <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Turner Holm</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Quintin V. Kneen</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> I see. OK, all right. One more if I may. Just on Southeast Asia, just looking at your commentary, your prepared remarks, Quintin, and you described Southeast Asia as maybe being a little bit behind the other two key markets in terms of recovery.
-And you also mentioned that the prices that you're seeing on some of your assets starting to get your attention. Given the smallest region for you all with only 10 vessels, what is maybe makes sense now? Are you starting to consider maybe monetizing that business and deploying it in another region? Or what can you if anything on sort of the future structural development of GulfMark?</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> I definitely think that consolidation and concentration make a lot of sense in this industry at this time. Southeast Asia, in particular, is going to struggle over the next couple of years and there may be a strategic opportunity to redeploy capital invested in that area of the world into an area like the North Sea or maybe even in Latin America, where it could do more for us in the next three to five years. Those opportunities haven't presented themselves just as yet but certainly, things that we think about as we think about what GulfMark could look like in the next three to five years.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+    <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Joseph Gibney</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Quintin V. Kneen</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Yes. Thanks. Good morning, guys. Just a question on the Americas.
-Just curious on fleet mix here, exclusively Gulf of Mexico, are you seeing some movement in Trinidad? And just curious how we stand utilizationwise looking into 2Q? Now you referenced some seasonal boost on rate of 5% or so, just Quin, just some perspective there on what you're seeing utilization wise in the Americas? And maybe is it exclusively Gulf of Mexico? Or are you seeing pockets of opportunities for some tightening out of places like Trinidad, just curious on some perspective there?</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> All right. So what I'm seeing is, areas like Trinidad, Suriname, Guyana, and even Brazil, beginning to tighten up and to draw capacity out of the Gulf of Mexico, and I would even suggest that Mexico proper is going to be a component of that. Recently been taking some large tonnage into those areas, so from the U.S. Gulf of Mexico call it, boats larger than 260 foot.
-But there are also smaller vessels that are getting into that level -- getting into those areas as well. So I expect to see some tightening in the Gulf of Mexico -- U.S. Gulf of Mexico because of that. So the market supply is beginning to dwindle a bit in the U.S.
-Gulf of Mexico, that's given us the opportunity to push price from time to time. As it relates to utilization in the U.S. Gulf of Mexico, I'm starting to see maybe 2 and 3 percentage point increases as we go through the summer in the U.S. Gulf of Mexico.
-So those are those small increases that I anticipate in the recovering market. So there may be some more episodes to push price on a regular basis in the U.S. Gulf of Mexico and we'll certainly push that. But currently, it's definitely on that kind of 280-and-above class of vessel in the U.S.
-Gulf of Mexico.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+    <row r="5" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Joseph Gibney</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Quintin V. Kneen</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OK, that's helpful. And just back to the vessel sales and acquisition market. You referenced just holding off, obviously, because of some rising prices now, it's encouraging. Again getting some of your attention on the smaller tonnage side.
-But as we think about vessel dispositions out of your fleet and some of the regularly scheduled thoughts that we had there flowing through the next six quarters or so. Would we still anticipate movement from some vessel sales this year? Or do you think things are really just sort of pushing out a little bit on that front, given the market tightening up a little bit here that you're willing to wait more? Just trying to understand some timing around sales of some of your less-capable assets within your fleet as we work through the rest of '18.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> So we're getting multiple bids on older assets today. And so I [Inaudible] been willing to let go of them just because the prices have increased. I'll give you a general example. In early 2017, some of the smaller PSVs that we had that are still DP2 and still diesel-electric but the smaller -- smallest category, we were getting indications, $1.1 million a copy.
-Recently getting indications of about $4 million a copy on those boats. So I'm starting to get interested in that level, honestly, but we're still taking a wait-and-see approach as we go through the summer. I definitely don't feel like the prices on that category of vessels are backsliding. So as a result, I'm willing to be a little bit patient to see how prices develop as we go through the remainder of 2018.
-But longer term, I don't see them as core to the GulfMark fleet and expect them to find a home elsewhere in the world. They could find a home in Mexico, they could also find a home in West Africa, that category, that specific category of vessels so --</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+    <row r="6" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Chandrashekaran-annotations/GLF_Q1_2018.xlsx
+++ b/Chandrashekaran-annotations/GLF_Q1_2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vm056257\Downloads\Working\PEBU\ML\SubjECTive-QA\Chandrashekaran-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F07768-144E-4FCF-900F-2247591D4280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAA1C4C-6B8E-4BF4-915C-36A0DDBE6296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,6 +530,24 @@
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -544,6 +562,24 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -558,6 +594,24 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -572,6 +626,24 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -585,6 +657,24 @@
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
